--- a/touch_data.xlsx
+++ b/touch_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="Data Samsung" sheetId="2" r:id="rId1"/>
@@ -198,36 +198,36 @@
     <t>https://touch.com.ua/item/samsung-a226b-galaxy-a22-5g-4-64gb-gray/</t>
   </si>
   <si>
+    <t>Смартфон Samsung Galaxy S22 8/256GB Green (SM-S901BZGG)</t>
+  </si>
+  <si>
+    <t>https://touch.com.ua/item/samsung-s901b-galaxy-s22-5g-2022-8-256gb-green/</t>
+  </si>
+  <si>
     <t>Смартфон Samsung Galaxy S22 Plus 5G 2022 8/256Gb (SM-S906BZKG) Black</t>
   </si>
   <si>
     <t>https://touch.com.ua/item/samsung-s906b-galaxy-s22-plus-5g-2022-8-256gb-black/</t>
   </si>
   <si>
-    <t>Смартфон Samsung Galaxy S22 8/256GB Green (SM-S901BZGG)</t>
-  </si>
-  <si>
-    <t>https://touch.com.ua/item/samsung-s901b-galaxy-s22-5g-2022-8-256gb-green/</t>
-  </si>
-  <si>
     <t>Смартфон Samsung Galaxy Flip4 8/512GB Bora Purple (SM-F7210)</t>
   </si>
   <si>
     <t>https://touch.com.ua/item/samsung-f7210-galaxy-flip4-8-512gb-bora-purple/</t>
   </si>
   <si>
+    <t>Смартфон Samsung Galaxy A03 4/64GB Black (SM-A035FZKG)</t>
+  </si>
+  <si>
+    <t>https://touch.com.ua/item/samsung-a035f-galaxy-a03-4-64gb-black/</t>
+  </si>
+  <si>
     <t>Смартфон Samsung Galaxy Flip4 8/128GB Blue (SM-F7210)</t>
   </si>
   <si>
     <t>https://touch.com.ua/item/samsung-f7210-galaxy-flip4-8-128gb-blue/</t>
   </si>
   <si>
-    <t>Смартфон Samsung Galaxy A03 4/64GB Black (SM-A035FZKG)</t>
-  </si>
-  <si>
-    <t>https://touch.com.ua/item/samsung-a035f-galaxy-a03-4-64gb-black/</t>
-  </si>
-  <si>
     <t>Смартфон Samsung Galaxy Flip4 8/128GB Bora Purple (SM-F7210)</t>
   </si>
   <si>
@@ -240,18 +240,18 @@
     <t>https://touch.com.ua/item/samsung-f7210-galaxy-flip4-8-256gb-graphite/</t>
   </si>
   <si>
+    <t>Смартфон Samsung Galaxy S20 FE SM-G780G 6/128Gb (Cloud Lavender)</t>
+  </si>
+  <si>
+    <t>https://touch.com.ua/item/smartfon-samsung-galaxy-s20-fe-5g-sm-g780g-6-128gb-cloud-lavender/</t>
+  </si>
+  <si>
     <t>Смартфон Samsung Galaxy S22 Plus 5G 2022 (SM-S9060) 8/256Gb Phantom Black</t>
   </si>
   <si>
     <t>https://touch.com.ua/item/samsung-s9060-galaxy-s22-plus-5g-2022-8-256gb-black-snapdragon/</t>
   </si>
   <si>
-    <t>Смартфон Samsung Galaxy S20 FE SM-G780G 6/128Gb (Cloud Lavender)</t>
-  </si>
-  <si>
-    <t>https://touch.com.ua/item/smartfon-samsung-galaxy-s20-fe-5g-sm-g780g-6-128gb-cloud-lavender/</t>
-  </si>
-  <si>
     <t>Смартфон Samsung Galaxy Flip4 8/128GB Pink Gold (SM-F721BZDG)</t>
   </si>
   <si>
@@ -318,6 +318,12 @@
     <t>https://touch.com.ua/item/samsung-f936b-galaxy-fold4-12-256gb-phantom-black/</t>
   </si>
   <si>
+    <t>Смартфон Samsung Galaxy Flip4 8/128GB Graphite (SM-F721BZAG)</t>
+  </si>
+  <si>
+    <t>https://touch.com.ua/item/samsung-f721b-galaxy-flip4-8-128gb-graphite/</t>
+  </si>
+  <si>
     <t>Смартфон Samsung Galaxy S22 Ultra 5G 2022 12/256Gb (SM-S908BZGGSEK) Green</t>
   </si>
   <si>
@@ -330,12 +336,6 @@
     <t>https://touch.com.ua/item/samsung-m336b-galaxy-m33-5g-6-128gb-green-ua-ucrf/</t>
   </si>
   <si>
-    <t>Смартфон Samsung Galaxy Flip4 8/128GB Graphite (SM-F721BZAG)</t>
-  </si>
-  <si>
-    <t>https://touch.com.ua/item/samsung-f721b-galaxy-flip4-8-128gb-graphite/</t>
-  </si>
-  <si>
     <t>Смартфон Samsung Galaxy Flip4 8/512GB Blue (SM-F7210)</t>
   </si>
   <si>
@@ -348,18 +348,18 @@
     <t>https://touch.com.ua/item/samsung-a325f-galaxy-a32-4-128gb-black/</t>
   </si>
   <si>
+    <t>Смартфон Samsung Galaxy A13 4/128GB Peach (SM-A135FZOG)</t>
+  </si>
+  <si>
+    <t>https://touch.com.ua/item/samsung-a135f-galaxy-a13-4-128gb-peach/</t>
+  </si>
+  <si>
     <t>Смартфон Samsung Galaxy Flip4 8/128GB Pink Gold (SM-F7210)</t>
   </si>
   <si>
     <t>https://touch.com.ua/item/samsung-f7210-galaxy-flip4-8-128gb-pink-gold/</t>
   </si>
   <si>
-    <t>Смартфон Samsung Galaxy A13 4/128GB Peach (SM-A135FZOG)</t>
-  </si>
-  <si>
-    <t>https://touch.com.ua/item/samsung-a135f-galaxy-a13-4-128gb-peach/</t>
-  </si>
-  <si>
     <t>Смартфон Samsung Galaxy M52 (SM-M526B) 8/128GB Black</t>
   </si>
   <si>
@@ -546,18 +546,18 @@
     <t>https://touch.com.ua/item/samsung-f721b-galaxy-flip4-8-256gb-purple/</t>
   </si>
   <si>
+    <t>Смартфон Samsung Galaxy S21 FE 5G 2021 8/256Gb Olive (SM-G990BLGWSEK)</t>
+  </si>
+  <si>
+    <t>https://touch.com.ua/item/samsung-g990b-galaxy-s21-fe-5g-2021-8-256gb-olive/</t>
+  </si>
+  <si>
     <t>Смартфон Samsung Galaxy Flip4 8/256GB Graphite (SM-F721BZAH)</t>
   </si>
   <si>
     <t>https://touch.com.ua/item/samsung-f721b-galaxy-flip4-8-256gb-graphite/</t>
   </si>
   <si>
-    <t>Смартфон Samsung Galaxy S21 FE 5G 2021 8/256Gb Olive (SM-G990BLGWSEK)</t>
-  </si>
-  <si>
-    <t>https://touch.com.ua/item/samsung-g990b-galaxy-s21-fe-5g-2021-8-256gb-olive/</t>
-  </si>
-  <si>
     <t>Смартфон Samsung Galaxy S22 Plus 5G 2022 8/128GB Green (SM-S906BZGD)</t>
   </si>
   <si>
@@ -666,6 +666,12 @@
     <t>https://touch.com.ua/item/samsung-s906b-galaxy-s22-plus-5g-2022-8-256gb-white/</t>
   </si>
   <si>
+    <t>Смартфон Samsung Galaxy Flip4 8/128GB Blue (SM-F721BZAG)</t>
+  </si>
+  <si>
+    <t>https://touch.com.ua/item/samsung-f721b-galaxy-flip4-8-128gb-blue/</t>
+  </si>
+  <si>
     <t>Смартфон Samsung Galaxy Fold4 12/512GB Beige (SM-F936BZEC)</t>
   </si>
   <si>
@@ -676,12 +682,6 @@
   </si>
   <si>
     <t>https://touch.com.ua/item/smartfon-samsung-galaxy-a03s-4-64gb-black-sm-a037fzkgsek/</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung Galaxy Flip4 8/128GB Blue (SM-F721BZAG)</t>
-  </si>
-  <si>
-    <t>https://touch.com.ua/item/samsung-f721b-galaxy-flip4-8-128gb-blue/</t>
   </si>
   <si>
     <t>Смартфон Samsung Galaxy A22 5G 4/128GB Gray (A226B)</t>
@@ -4231,7 +4231,7 @@
         <v>59</v>
       </c>
       <c r="B30">
-        <v>34369</v>
+        <v>31929</v>
       </c>
       <c r="C30" t="s">
         <v>60</v>
@@ -4245,7 +4245,7 @@
         <v>61</v>
       </c>
       <c r="B31">
-        <v>31929</v>
+        <v>34369</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
@@ -4273,7 +4273,7 @@
         <v>65</v>
       </c>
       <c r="B33">
-        <v>34279</v>
+        <v>5719</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
@@ -4287,7 +4287,7 @@
         <v>67</v>
       </c>
       <c r="B34">
-        <v>5719</v>
+        <v>34279</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -4329,7 +4329,7 @@
         <v>73</v>
       </c>
       <c r="B37">
-        <v>36769</v>
+        <v>18829</v>
       </c>
       <c r="C37" t="s">
         <v>74</v>
@@ -4343,7 +4343,7 @@
         <v>75</v>
       </c>
       <c r="B38">
-        <v>18829</v>
+        <v>36769</v>
       </c>
       <c r="C38" t="s">
         <v>76</v>
@@ -4511,7 +4511,7 @@
         <v>99</v>
       </c>
       <c r="B50">
-        <v>40989</v>
+        <v>32469</v>
       </c>
       <c r="C50" t="s">
         <v>100</v>
@@ -4525,7 +4525,7 @@
         <v>101</v>
       </c>
       <c r="B51">
-        <v>11390</v>
+        <v>40989</v>
       </c>
       <c r="C51" t="s">
         <v>102</v>
@@ -4539,7 +4539,7 @@
         <v>103</v>
       </c>
       <c r="B52">
-        <v>32469</v>
+        <v>11390</v>
       </c>
       <c r="C52" t="s">
         <v>104</v>
@@ -4581,7 +4581,7 @@
         <v>109</v>
       </c>
       <c r="B55">
-        <v>34279</v>
+        <v>7469</v>
       </c>
       <c r="C55" t="s">
         <v>110</v>
@@ -4595,7 +4595,7 @@
         <v>111</v>
       </c>
       <c r="B56">
-        <v>7469</v>
+        <v>34279</v>
       </c>
       <c r="C56" t="s">
         <v>112</v>
@@ -5043,7 +5043,7 @@
         <v>175</v>
       </c>
       <c r="B88">
-        <v>36679</v>
+        <v>24799</v>
       </c>
       <c r="C88" t="s">
         <v>176</v>
@@ -5057,7 +5057,7 @@
         <v>177</v>
       </c>
       <c r="B89">
-        <v>24799</v>
+        <v>36679</v>
       </c>
       <c r="C89" t="s">
         <v>178</v>
@@ -5323,7 +5323,7 @@
         <v>215</v>
       </c>
       <c r="B108">
-        <v>58129</v>
+        <v>32469</v>
       </c>
       <c r="C108" t="s">
         <v>216</v>
@@ -5337,7 +5337,7 @@
         <v>217</v>
       </c>
       <c r="B109">
-        <v>5790</v>
+        <v>58129</v>
       </c>
       <c r="C109" t="s">
         <v>218</v>
@@ -5351,7 +5351,7 @@
         <v>219</v>
       </c>
       <c r="B110">
-        <v>32469</v>
+        <v>5790</v>
       </c>
       <c r="C110" t="s">
         <v>220</v>
